--- a/document/Base Project WEB API/Base project WEB API_Structure.xlsx
+++ b/document/Base Project WEB API/Base project WEB API_Structure.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2250" windowWidth="28800" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Structure Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="2" r:id="rId2"/>
+    <sheet name="BL" sheetId="4" r:id="rId2"/>
+    <sheet name="Task" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Task!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Task!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Main structure</t>
   </si>
@@ -176,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +199,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -312,6 +319,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,14 +685,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>174813</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>64995</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>36420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>8406</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -686,7 +701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6175563" y="10018620"/>
+          <a:off x="6175563" y="10371045"/>
           <a:ext cx="5434293" cy="3116355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -735,14 +750,14 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>64274</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>40178</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>30656</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>62591</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34016</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -751,7 +766,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8265299" y="12089303"/>
+          <a:off x="8265299" y="12441728"/>
           <a:ext cx="1366557" cy="593913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -829,14 +844,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>180976</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>77321</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>48746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>57</xdr:col>
       <xdr:colOff>192183</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -845,7 +860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181726" y="13459946"/>
+          <a:off x="6181726" y="13812371"/>
           <a:ext cx="5411882" cy="1503830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,14 +909,14 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>157045</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>11199</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>173124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>181795</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>87974</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>59399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -910,7 +925,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8558095" y="13965324"/>
+          <a:off x="8558095" y="14317749"/>
           <a:ext cx="824850" cy="648275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -3171,9 +3186,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5448300" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -3183,7 +3198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="10153650"/>
+          <a:off x="6153150" y="10429875"/>
           <a:ext cx="5448300" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3229,14 +3244,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>7124</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>87803</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>173531</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>110216</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3245,7 +3260,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6407924" y="10803428"/>
+          <a:off x="6407924" y="11155853"/>
           <a:ext cx="1366557" cy="593913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3311,14 +3326,14 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>64274</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>87803</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59228</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>30656</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>110216</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3327,7 +3342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8265299" y="10803428"/>
+          <a:off x="8265299" y="11155853"/>
           <a:ext cx="1366557" cy="593913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3393,14 +3408,14 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>159524</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>97328</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>56</xdr:col>
       <xdr:colOff>125906</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>119741</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3409,7 +3424,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9960749" y="10812953"/>
+          <a:off x="9960749" y="11165378"/>
           <a:ext cx="1366557" cy="593913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3475,14 +3490,14 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>147478</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>110216</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81641</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>147478</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>40178</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11603</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3494,7 +3509,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8948578" y="11397341"/>
+          <a:off x="8948578" y="11749766"/>
           <a:ext cx="0" cy="691962"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3525,14 +3540,14 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>90329</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>110215</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>81640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>64275</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>146634</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3544,7 +3559,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7183792" y="11304752"/>
+          <a:off x="7183792" y="11657177"/>
           <a:ext cx="988919" cy="1174096"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -3575,14 +3590,14 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>30656</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>119741</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>42703</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>146635</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>118060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3594,7 +3609,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="9648245" y="11390477"/>
+          <a:off x="9648245" y="11742902"/>
           <a:ext cx="979394" cy="1012172"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -3625,14 +3640,14 @@
     <xdr:from>
       <xdr:col>44</xdr:col>
       <xdr:colOff>147478</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>62591</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>34016</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
       <xdr:colOff>169420</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>11199</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>173124</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3644,7 +3659,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8948578" y="12683216"/>
+          <a:off x="8948578" y="13035641"/>
           <a:ext cx="21942" cy="1282108"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4024,6 +4039,4251 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="9725025"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>186019</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>19612</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186769" y="2171700"/>
+          <a:ext cx="5434293" cy="2627221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>36420</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5484720" y="1514474"/>
+          <a:ext cx="6753225" cy="15554325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31938</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>7845</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rounded Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8232963" y="4034117"/>
+          <a:ext cx="1376082" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Web API</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>(REST API)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>186019</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>19612</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6186769" y="5122769"/>
+          <a:ext cx="5434293" cy="5992906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>174978</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>67474</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7575903" y="5254438"/>
+          <a:ext cx="2692846" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Business</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Facade</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>174813</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>8406</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6175563" y="11780745"/>
+          <a:ext cx="5434293" cy="3116355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>64274</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>87803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>30656</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>110216</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8265299" y="13851428"/>
+          <a:ext cx="1366557" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Context</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>124946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>192183</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6181726" y="15222071"/>
+          <a:ext cx="5411882" cy="1503830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>157045</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>58824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>181795</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Flowchart: Magnetic Disk 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558095" y="15727449"/>
+          <a:ext cx="824850" cy="648275"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93570</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="367394" cy="1095376"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5450341" y="3172186"/>
+          <a:ext cx="1095376" cy="367394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>API</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>2721</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="367394" cy="1095376"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5439455" y="7357743"/>
+          <a:ext cx="1095376" cy="367394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Business</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>194582</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>124866</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="367394" cy="1095376"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5431291" y="13109482"/>
+          <a:ext cx="1095376" cy="367394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Data</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>120827</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8921927" y="5848351"/>
+          <a:ext cx="399" cy="482412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>101778</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>174979</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="85" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="7102653" y="5551394"/>
+          <a:ext cx="473251" cy="807943"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>57949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>35102</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177613</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="90" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10167679" y="5652465"/>
+          <a:ext cx="760318" cy="577228"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1142"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8924925" y="8220075"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>119904</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>8405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>121226</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63313</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8921004" y="4628030"/>
+          <a:ext cx="1322" cy="626408"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>89088</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>64995</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rounded Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489888" y="2367242"/>
+          <a:ext cx="1376082" cy="879663"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Authentication</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>198345</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8223438" y="2367242"/>
+          <a:ext cx="1376082" cy="879663"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Authorization</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>98613</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>74520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>160805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rounded Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9899838" y="2376767"/>
+          <a:ext cx="1376082" cy="879663"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Handle Exception</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>110379</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>119904</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>176492</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8911479" y="3246905"/>
+          <a:ext cx="9525" cy="787212"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177055</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>151279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>31939</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7163362" y="3261472"/>
+          <a:ext cx="1084169" cy="1055034"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>7846</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>138957</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9542092" y="3332909"/>
+          <a:ext cx="1065119" cy="931211"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="7162800"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="7524750"/>
+          <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="528478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867525" y="7200900"/>
+          <a:ext cx="528478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Entity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="674911"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486524" y="7581900"/>
+          <a:ext cx="1247775" cy="674911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Business</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="7162800"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8296275" y="7543800"/>
+          <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="528478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="7200900"/>
+          <a:ext cx="528478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Entity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="674911"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305799" y="7581900"/>
+          <a:ext cx="1247775" cy="674911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Business</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="7181850"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10067925" y="7562850"/>
+          <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="528478" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10467975" y="7219950"/>
+          <a:ext cx="528478" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Entity</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="674911"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086974" y="7600950"/>
+          <a:ext cx="1247775" cy="674911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Business</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6448425" y="8867775"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457950" y="9229725"/>
+          <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="570862" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="8905875"/>
+          <a:ext cx="570862" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="619125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467474" y="9286875"/>
+          <a:ext cx="1247775" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Behavior</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="8877300"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="9210675"/>
+          <a:ext cx="1285875" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="570862" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="8915400"/>
+          <a:ext cx="570862" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="638175"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="TextBox 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305799" y="9296400"/>
+          <a:ext cx="1247775" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Behavior</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="8886825"/>
+          <a:ext cx="1276350" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:noFill/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10086975" y="9220200"/>
+          <a:ext cx="1266825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="570862" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="8934450"/>
+          <a:ext cx="570862" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Object</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1247775" cy="674911"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096499" y="9267825"/>
+          <a:ext cx="1247775" cy="674911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Behavior</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>125318</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>128469</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7509330" y="7636914"/>
+          <a:ext cx="637051" cy="1803376"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220450" y="8239125"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="8229600"/>
+          <a:ext cx="0" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>93275</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>103763</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>56026</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9681231" y="7642769"/>
+          <a:ext cx="637051" cy="1810713"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5448300" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="TextBox 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153150" y="11839575"/>
+          <a:ext cx="5448300" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>Unit of</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t> Work</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>7124</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>173531</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6407924" y="12565553"/>
+          <a:ext cx="1366557" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Repository</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>64274</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>135428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>30656</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rounded Rectangle 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8265299" y="12565553"/>
+          <a:ext cx="1366557" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Repository</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>159524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>144953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>125906</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167366</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rounded Rectangle 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9960749" y="12575078"/>
+          <a:ext cx="1366557" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Repository</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>147478</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>147478</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>87803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948578" y="13159466"/>
+          <a:ext cx="0" cy="691962"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>90329</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>157840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>64275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7183792" y="13066877"/>
+          <a:ext cx="988919" cy="1174096"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>30656</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>167366</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>42703</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>3760</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9648245" y="13152602"/>
+          <a:ext cx="979394" cy="1012172"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>147478</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>110216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>169420</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>58824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8948578" y="14445341"/>
+          <a:ext cx="21942" cy="1282108"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64996</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="465046" y="1524000"/>
+          <a:ext cx="3945030" cy="6134101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rounded Rectangle 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="3876675"/>
+          <a:ext cx="1376082" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Logging</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>174813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rounded Rectangle 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="2867025"/>
+          <a:ext cx="1376082" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Utility</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175932</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>117663</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Rounded Rectangle 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="4905375"/>
+          <a:ext cx="1376082" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Exception</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> core</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>174813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rounded Rectangle 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="5915025"/>
+          <a:ext cx="1376082" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Constant</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>(make</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> static readonly)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Rectangle 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="2143125"/>
+          <a:ext cx="3476625" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>91610</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>92651</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>112620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8892710" y="11020426"/>
+          <a:ext cx="1041" cy="760319"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>146403</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>38899</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rounded Rectangle 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7547328" y="10426513"/>
+          <a:ext cx="2692846" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>Model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t> Conversions</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>146404</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="1"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6467476" y="7691438"/>
+          <a:ext cx="1079853" cy="3032032"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 121170"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>38899</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7845</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Arrow Connector 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="33" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10240174" y="7710488"/>
+          <a:ext cx="1104101" cy="3012982"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 120705"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>22578</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rounded Rectangle 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6623403" y="6359338"/>
+          <a:ext cx="958497" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>BE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>41628</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rounded Rectangle 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8442678" y="6330763"/>
+          <a:ext cx="958497" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>BE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>155928</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rounded Rectangle 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10357203" y="6321238"/>
+          <a:ext cx="958497" cy="593913"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>BE</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>101777</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102652" y="6953251"/>
+          <a:ext cx="2998" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>120827</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8921927" y="6934201"/>
+          <a:ext cx="2998" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>22048</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="Straight Arrow Connector 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="6924675"/>
+          <a:ext cx="2998" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4294,8 +8554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:AI45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="BN57" sqref="BN57"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="BN56" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4333,9 +8593,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:AI45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="BR46" sqref="BR46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="3" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:29" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="C2" s="16"/>
+      <c r="AB2" s="16"/>
+    </row>
+    <row r="7" spans="3:29" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="3:29" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="35:35" x14ac:dyDescent="0.25">
+      <c r="AI27" s="18"/>
+    </row>
+    <row r="30" spans="35:35" x14ac:dyDescent="0.25">
+      <c r="AI30" s="18"/>
+    </row>
+    <row r="45" spans="32:32" x14ac:dyDescent="0.25">
+      <c r="AF45" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
